--- a/AQLTest/inputData/DataTables.xlsx
+++ b/AQLTest/inputData/DataTables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSWorkspace\QIMA\AQLTest\inputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubWS\AQL_ProductSamplingAndInspection_tst\AQLTest\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E699BBD4-03A4-48C6-BF86-97E3B10FC86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ADF7A0-F6A5-4D6A-AAFA-45B6847E0CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{CCCC1261-000C-4EB2-93D6-F3BDC683560B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="52">
   <si>
     <t>I</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>Over</t>
   </si>
   <si>
     <t>#</t>
@@ -604,13 +601,14 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
@@ -618,7 +616,7 @@
   <sheetData>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -652,10 +650,10 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
         <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -684,10 +682,10 @@
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>9</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -716,10 +714,10 @@
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -748,10 +746,10 @@
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>26</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>50</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -780,10 +778,10 @@
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>51</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>90</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -812,10 +810,10 @@
       <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>91</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>150</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -844,10 +842,10 @@
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>151</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>280</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -876,10 +874,10 @@
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>281</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>500</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -908,10 +906,10 @@
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>501</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>1200</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -940,10 +938,10 @@
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>1201</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>3200</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -972,10 +970,10 @@
       <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>2301</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>10000</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1004,10 +1002,10 @@
       <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>10001</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>35000</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1036,10 +1034,10 @@
       <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>35001</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>150000</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1068,10 +1066,10 @@
       <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>150001</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>500000</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1100,11 +1098,11 @@
       <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>500001</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>25</v>
+      <c r="C17" s="8">
+        <v>999999999</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>21</v>
@@ -1139,7 +1137,7 @@
   <dimension ref="B2:AA18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,82 +1165,82 @@
   <sheetData>
     <row r="2" spans="2:27" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
